--- a/modules/member-manager/excel-import-template.xlsx
+++ b/modules/member-manager/excel-import-template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webroot\www\vinades\hoinghivietbi\modules\member-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639255A4-BBEB-43F4-97C6-669C7ACE2B01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>THÔNG TIN HỘI VIÊN VBFA</t>
   </si>
@@ -126,12 +127,18 @@
   </si>
   <si>
     <t>K72</t>
+  </si>
+  <si>
+    <t>TRƯỜNG ĐÃ HỌC TẠI VIỆT NAM</t>
+  </si>
+  <si>
+    <t>LĨNH VỰC QUAN TÂM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -375,6 +382,45 @@
       <right style="double">
         <color auto="1"/>
       </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="dotted">
         <color auto="1"/>
       </top>
@@ -388,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -467,6 +513,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -816,14 +871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMM32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -835,13 +890,16 @@
     <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="24.42578125" style="2" customWidth="1"/>
-    <col min="12" max="1025" width="9.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="24.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" style="2" customWidth="1"/>
+    <col min="15" max="1027" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1027" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -856,8 +914,10 @@
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
-    </row>
-    <row r="2" spans="1:1025" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:1027" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -880,22 +940,28 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -913,21 +979,23 @@
       <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="27"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -947,19 +1015,21 @@
         <v>21</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:1025" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="28"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:1027" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -979,23 +1049,23 @@
         <v>25</v>
       </c>
       <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="K5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="1:1025" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="18"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="1:1027" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="ALZ6"/>
-      <c r="AMA6"/>
       <c r="AMB6"/>
       <c r="AMC6"/>
       <c r="AMD6"/>
@@ -1006,12 +1076,12 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
       <c r="AMK6"/>
-    </row>
-    <row r="7" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML6"/>
+      <c r="AMM6"/>
+    </row>
+    <row r="7" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="ALZ7"/>
-      <c r="AMA7"/>
       <c r="AMB7"/>
       <c r="AMC7"/>
       <c r="AMD7"/>
@@ -1022,12 +1092,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
       <c r="AMK7"/>
-    </row>
-    <row r="8" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML7"/>
+      <c r="AMM7"/>
+    </row>
+    <row r="8" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="ALZ8"/>
-      <c r="AMA8"/>
       <c r="AMB8"/>
       <c r="AMC8"/>
       <c r="AMD8"/>
@@ -1038,12 +1108,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
       <c r="AMK8"/>
-    </row>
-    <row r="9" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML8"/>
+      <c r="AMM8"/>
+    </row>
+    <row r="9" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="ALZ9"/>
-      <c r="AMA9"/>
       <c r="AMB9"/>
       <c r="AMC9"/>
       <c r="AMD9"/>
@@ -1054,12 +1124,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
       <c r="AMK9"/>
-    </row>
-    <row r="10" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML9"/>
+      <c r="AMM9"/>
+    </row>
+    <row r="10" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="ALZ10"/>
-      <c r="AMA10"/>
       <c r="AMB10"/>
       <c r="AMC10"/>
       <c r="AMD10"/>
@@ -1070,12 +1140,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
       <c r="AMK10"/>
-    </row>
-    <row r="11" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML10"/>
+      <c r="AMM10"/>
+    </row>
+    <row r="11" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="ALZ11"/>
-      <c r="AMA11"/>
       <c r="AMB11"/>
       <c r="AMC11"/>
       <c r="AMD11"/>
@@ -1086,12 +1156,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
       <c r="AMK11"/>
-    </row>
-    <row r="12" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML11"/>
+      <c r="AMM11"/>
+    </row>
+    <row r="12" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="ALZ12"/>
-      <c r="AMA12"/>
       <c r="AMB12"/>
       <c r="AMC12"/>
       <c r="AMD12"/>
@@ -1102,12 +1172,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
       <c r="AMK12"/>
-    </row>
-    <row r="13" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML12"/>
+      <c r="AMM12"/>
+    </row>
+    <row r="13" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="ALZ13"/>
-      <c r="AMA13"/>
       <c r="AMB13"/>
       <c r="AMC13"/>
       <c r="AMD13"/>
@@ -1118,12 +1188,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
       <c r="AMK13"/>
-    </row>
-    <row r="14" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML13"/>
+      <c r="AMM13"/>
+    </row>
+    <row r="14" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="ALZ14"/>
-      <c r="AMA14"/>
       <c r="AMB14"/>
       <c r="AMC14"/>
       <c r="AMD14"/>
@@ -1134,12 +1204,12 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
       <c r="AMK14"/>
-    </row>
-    <row r="15" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML14"/>
+      <c r="AMM14"/>
+    </row>
+    <row r="15" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="ALZ15"/>
-      <c r="AMA15"/>
       <c r="AMB15"/>
       <c r="AMC15"/>
       <c r="AMD15"/>
@@ -1150,12 +1220,12 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
       <c r="AMK15"/>
-    </row>
-    <row r="16" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML15"/>
+      <c r="AMM15"/>
+    </row>
+    <row r="16" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="ALZ16"/>
-      <c r="AMA16"/>
       <c r="AMB16"/>
       <c r="AMC16"/>
       <c r="AMD16"/>
@@ -1166,12 +1236,12 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
       <c r="AMK16"/>
-    </row>
-    <row r="17" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML16"/>
+      <c r="AMM16"/>
+    </row>
+    <row r="17" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="ALZ17"/>
-      <c r="AMA17"/>
       <c r="AMB17"/>
       <c r="AMC17"/>
       <c r="AMD17"/>
@@ -1182,12 +1252,12 @@
       <c r="AMI17"/>
       <c r="AMJ17"/>
       <c r="AMK17"/>
-    </row>
-    <row r="18" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML17"/>
+      <c r="AMM17"/>
+    </row>
+    <row r="18" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="ALZ18"/>
-      <c r="AMA18"/>
       <c r="AMB18"/>
       <c r="AMC18"/>
       <c r="AMD18"/>
@@ -1198,12 +1268,12 @@
       <c r="AMI18"/>
       <c r="AMJ18"/>
       <c r="AMK18"/>
-    </row>
-    <row r="19" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML18"/>
+      <c r="AMM18"/>
+    </row>
+    <row r="19" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="ALZ19"/>
-      <c r="AMA19"/>
       <c r="AMB19"/>
       <c r="AMC19"/>
       <c r="AMD19"/>
@@ -1214,12 +1284,12 @@
       <c r="AMI19"/>
       <c r="AMJ19"/>
       <c r="AMK19"/>
-    </row>
-    <row r="20" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML19"/>
+      <c r="AMM19"/>
+    </row>
+    <row r="20" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="ALZ20"/>
-      <c r="AMA20"/>
       <c r="AMB20"/>
       <c r="AMC20"/>
       <c r="AMD20"/>
@@ -1230,12 +1300,12 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
       <c r="AMK20"/>
-    </row>
-    <row r="21" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML20"/>
+      <c r="AMM20"/>
+    </row>
+    <row r="21" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="ALZ21"/>
-      <c r="AMA21"/>
       <c r="AMB21"/>
       <c r="AMC21"/>
       <c r="AMD21"/>
@@ -1246,12 +1316,12 @@
       <c r="AMI21"/>
       <c r="AMJ21"/>
       <c r="AMK21"/>
-    </row>
-    <row r="22" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML21"/>
+      <c r="AMM21"/>
+    </row>
+    <row r="22" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="ALZ22"/>
-      <c r="AMA22"/>
       <c r="AMB22"/>
       <c r="AMC22"/>
       <c r="AMD22"/>
@@ -1262,12 +1332,12 @@
       <c r="AMI22"/>
       <c r="AMJ22"/>
       <c r="AMK22"/>
-    </row>
-    <row r="23" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML22"/>
+      <c r="AMM22"/>
+    </row>
+    <row r="23" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="ALZ23"/>
-      <c r="AMA23"/>
       <c r="AMB23"/>
       <c r="AMC23"/>
       <c r="AMD23"/>
@@ -1278,12 +1348,12 @@
       <c r="AMI23"/>
       <c r="AMJ23"/>
       <c r="AMK23"/>
-    </row>
-    <row r="24" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML23"/>
+      <c r="AMM23"/>
+    </row>
+    <row r="24" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="ALZ24"/>
-      <c r="AMA24"/>
       <c r="AMB24"/>
       <c r="AMC24"/>
       <c r="AMD24"/>
@@ -1294,12 +1364,12 @@
       <c r="AMI24"/>
       <c r="AMJ24"/>
       <c r="AMK24"/>
-    </row>
-    <row r="25" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML24"/>
+      <c r="AMM24"/>
+    </row>
+    <row r="25" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="ALZ25"/>
-      <c r="AMA25"/>
       <c r="AMB25"/>
       <c r="AMC25"/>
       <c r="AMD25"/>
@@ -1310,12 +1380,12 @@
       <c r="AMI25"/>
       <c r="AMJ25"/>
       <c r="AMK25"/>
-    </row>
-    <row r="26" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML25"/>
+      <c r="AMM25"/>
+    </row>
+    <row r="26" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="ALZ26"/>
-      <c r="AMA26"/>
       <c r="AMB26"/>
       <c r="AMC26"/>
       <c r="AMD26"/>
@@ -1326,12 +1396,12 @@
       <c r="AMI26"/>
       <c r="AMJ26"/>
       <c r="AMK26"/>
-    </row>
-    <row r="27" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML26"/>
+      <c r="AMM26"/>
+    </row>
+    <row r="27" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="ALZ27"/>
-      <c r="AMA27"/>
       <c r="AMB27"/>
       <c r="AMC27"/>
       <c r="AMD27"/>
@@ -1342,12 +1412,12 @@
       <c r="AMI27"/>
       <c r="AMJ27"/>
       <c r="AMK27"/>
-    </row>
-    <row r="28" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML27"/>
+      <c r="AMM27"/>
+    </row>
+    <row r="28" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="ALZ28"/>
-      <c r="AMA28"/>
       <c r="AMB28"/>
       <c r="AMC28"/>
       <c r="AMD28"/>
@@ -1358,12 +1428,12 @@
       <c r="AMI28"/>
       <c r="AMJ28"/>
       <c r="AMK28"/>
-    </row>
-    <row r="29" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML28"/>
+      <c r="AMM28"/>
+    </row>
+    <row r="29" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="ALZ29"/>
-      <c r="AMA29"/>
       <c r="AMB29"/>
       <c r="AMC29"/>
       <c r="AMD29"/>
@@ -1374,12 +1444,12 @@
       <c r="AMI29"/>
       <c r="AMJ29"/>
       <c r="AMK29"/>
-    </row>
-    <row r="30" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML29"/>
+      <c r="AMM29"/>
+    </row>
+    <row r="30" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="ALZ30"/>
-      <c r="AMA30"/>
       <c r="AMB30"/>
       <c r="AMC30"/>
       <c r="AMD30"/>
@@ -1390,12 +1460,12 @@
       <c r="AMI30"/>
       <c r="AMJ30"/>
       <c r="AMK30"/>
-    </row>
-    <row r="31" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML30"/>
+      <c r="AMM30"/>
+    </row>
+    <row r="31" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="ALZ31"/>
-      <c r="AMA31"/>
       <c r="AMB31"/>
       <c r="AMC31"/>
       <c r="AMD31"/>
@@ -1406,12 +1476,12 @@
       <c r="AMI31"/>
       <c r="AMJ31"/>
       <c r="AMK31"/>
-    </row>
-    <row r="32" spans="1:1025" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AML31"/>
+      <c r="AMM31"/>
+    </row>
+    <row r="32" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="ALZ32"/>
-      <c r="AMA32"/>
       <c r="AMB32"/>
       <c r="AMC32"/>
       <c r="AMD32"/>
@@ -1422,15 +1492,17 @@
       <c r="AMI32"/>
       <c r="AMJ32"/>
       <c r="AMK32"/>
+      <c r="AML32"/>
+      <c r="AMM32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/modules/member-manager/excel-import-template.xlsx
+++ b/modules/member-manager/excel-import-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webroot\www\vinades\hoinghivietbi\modules\member-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639255A4-BBEB-43F4-97C6-669C7ACE2B01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6D947C-A86A-4D95-9766-3861038F8677}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,17 +511,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -878,7 +878,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -900,22 +900,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1027" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:1027" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -992,7 +992,7 @@
       <c r="L3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="27"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:1027" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1026,7 +1026,7 @@
       <c r="L4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="28"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:1027" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1060,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="L5" s="18"/>
-      <c r="M5" s="29"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:1027" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
